--- a/converted_template.xlsx
+++ b/converted_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34b6dee9d188c71f/CV/Github/Templater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{F2169C35-B4A5-4A6F-A0CA-D08BEDAC6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52F27A6F-594D-41B2-99AF-C4674DC0DC9B}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{F2169C35-B4A5-4A6F-A0CA-D08BEDAC6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA85FF5-1F7F-4D12-8909-78B8F51B10C4}"/>
   <bookViews>
-    <workbookView xWindow="-22335" yWindow="3945" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41565" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="17">
   <si>
     <t>Day 1 Shifts</t>
   </si>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -164,6 +164,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,18 +474,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -663,371 +673,805 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
+      <c r="H19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>15</v>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
